--- a/Matlab_Excel/Excel/GELSGA.xlsx
+++ b/Matlab_Excel/Excel/GELSGA.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22819"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23007"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1266" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B6EBA60E-9E63-4792-8CF6-123D3C230D6E}"/>
+  <xr:revisionPtr revIDLastSave="1764" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4FD080E5-A183-42DA-ADA2-1570E719EB98}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,10 +51,10 @@
     <t>Data</t>
   </si>
   <si>
-    <t>R0 300</t>
-  </si>
-  <si>
-    <t>Total site = 500</t>
+    <t>R0 500, change total sites</t>
+  </si>
+  <si>
+    <t>Total site = 500, change resource per flight</t>
   </si>
 </sst>
 </file>
@@ -412,439 +412,442 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="10" max="11" width="15" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="C1">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="D1">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="E1">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="F1">
-        <v>70</v>
+        <v>400</v>
       </c>
       <c r="G1">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="H1">
-        <v>90</v>
-      </c>
-      <c r="J1" t="s">
+        <v>500</v>
+      </c>
+      <c r="I1">
+        <v>550</v>
+      </c>
+      <c r="J1">
+        <v>600</v>
+      </c>
+      <c r="K1">
+        <v>650</v>
+      </c>
+      <c r="L1">
+        <v>700</v>
+      </c>
+      <c r="P1" t="s">
         <v>1</v>
       </c>
-      <c r="K1">
-        <v>100</v>
-      </c>
-      <c r="L1">
-        <v>150</v>
-      </c>
-      <c r="M1">
-        <v>200</v>
-      </c>
-      <c r="N1">
+      <c r="Q1">
         <v>250</v>
       </c>
-      <c r="O1">
+      <c r="R1">
         <v>300</v>
       </c>
-      <c r="P1">
+      <c r="S1">
         <v>350</v>
       </c>
-      <c r="Q1">
+      <c r="T1">
         <v>400</v>
       </c>
-      <c r="R1">
+      <c r="U1">
         <v>450</v>
       </c>
-      <c r="S1">
+      <c r="V1">
         <v>500</v>
       </c>
-      <c r="T1">
+      <c r="W1">
         <v>550</v>
       </c>
-      <c r="U1">
+      <c r="X1">
         <v>600</v>
       </c>
-      <c r="V1">
-        <v>650</v>
-      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>27.016999999999999</v>
-      </c>
       <c r="D2">
-        <v>30.968800000000002</v>
+        <v>31.839700000000001</v>
       </c>
       <c r="E2">
-        <v>37.009099999999997</v>
+        <v>38.469200000000001</v>
       </c>
       <c r="F2">
-        <v>40.666800000000002</v>
+        <v>38.506999999999998</v>
       </c>
       <c r="G2">
-        <v>45.468699999999998</v>
+        <v>43.879399999999997</v>
       </c>
       <c r="H2">
-        <v>50.688200000000002</v>
-      </c>
-      <c r="J2" t="s">
+        <v>50.387500000000003</v>
+      </c>
+      <c r="I2">
+        <v>57.722999999999999</v>
+      </c>
+      <c r="J2">
+        <v>60.021999999999998</v>
+      </c>
+      <c r="K2">
+        <v>66.195800000000006</v>
+      </c>
+      <c r="L2">
+        <v>69.322400000000002</v>
+      </c>
+      <c r="P2" t="s">
         <v>2</v>
       </c>
-      <c r="L2">
-        <v>76.602199999999996</v>
-      </c>
-      <c r="M2">
-        <v>61.809399999999997</v>
-      </c>
-      <c r="N2">
-        <v>54.804900000000004</v>
-      </c>
-      <c r="O2">
-        <v>52.025300000000001</v>
-      </c>
-      <c r="P2">
-        <v>49.0548</v>
-      </c>
       <c r="Q2">
-        <v>45.813000000000002</v>
+        <v>66.038300000000007</v>
       </c>
       <c r="R2">
-        <v>44.607599999999998</v>
+        <v>60.724600000000002</v>
       </c>
       <c r="S2">
-        <v>43.6008</v>
+        <v>57.062399999999997</v>
       </c>
       <c r="T2">
-        <v>42.772100000000002</v>
+        <v>53.859499999999997</v>
       </c>
       <c r="U2">
-        <v>40.677100000000003</v>
+        <v>51.643300000000004</v>
       </c>
       <c r="V2">
-        <v>39.473500000000001</v>
+        <v>50.387500000000003</v>
+      </c>
+      <c r="W2">
+        <v>49.858199999999997</v>
+      </c>
+      <c r="X2">
+        <v>48.275799999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>3.3241700000000001</v>
-      </c>
       <c r="D3">
-        <v>4.2186000000000003</v>
+        <v>8.5592699999999997</v>
       </c>
       <c r="E3">
-        <v>5.0443699999999998</v>
+        <v>9.9473400000000005</v>
       </c>
       <c r="F3">
-        <v>5.77989</v>
+        <v>10.800800000000001</v>
       </c>
       <c r="G3">
-        <v>6.3887499999999999</v>
+        <v>11.7399</v>
       </c>
       <c r="H3">
-        <v>7.0952400000000004</v>
-      </c>
-      <c r="J3" t="s">
+        <v>12.9306</v>
+      </c>
+      <c r="I3">
+        <v>14.3088</v>
+      </c>
+      <c r="J3">
+        <v>15.547700000000001</v>
+      </c>
+      <c r="K3">
+        <v>17.124300000000002</v>
+      </c>
+      <c r="L3">
+        <v>18.614000000000001</v>
+      </c>
+      <c r="P3" t="s">
         <v>3</v>
       </c>
-      <c r="L3">
-        <v>22.066700000000001</v>
-      </c>
-      <c r="M3">
-        <v>18.1313</v>
-      </c>
-      <c r="N3">
-        <v>16.564699999999998</v>
-      </c>
-      <c r="O3">
-        <v>15.4415</v>
-      </c>
-      <c r="P3">
-        <v>14.5097</v>
-      </c>
       <c r="Q3">
-        <v>13.8764</v>
+        <v>16.692599999999999</v>
       </c>
       <c r="R3">
-        <v>13.402100000000001</v>
+        <v>15.3771</v>
       </c>
       <c r="S3">
-        <v>12.9581</v>
+        <v>14.455500000000001</v>
       </c>
       <c r="T3">
-        <v>12.6822</v>
+        <v>13.8073</v>
       </c>
       <c r="U3">
-        <v>12.0602</v>
+        <v>13.314399999999999</v>
       </c>
       <c r="V3">
-        <v>12.0618</v>
+        <v>12.9306</v>
+      </c>
+      <c r="W3">
+        <v>12.6698</v>
+      </c>
+      <c r="X3">
+        <v>12.466699999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>4.4459400000000002</v>
-      </c>
       <c r="D4">
-        <v>5.6508399999999996</v>
+        <v>11.3049</v>
       </c>
       <c r="E4">
-        <v>6.7622200000000001</v>
+        <v>13.1381</v>
       </c>
       <c r="F4">
-        <v>7.7705599999999997</v>
+        <v>14.295400000000001</v>
       </c>
       <c r="G4">
-        <v>8.6094899999999992</v>
+        <v>15.5709</v>
       </c>
       <c r="H4">
-        <v>9.57437</v>
-      </c>
-      <c r="J4" t="s">
+        <v>17.158799999999999</v>
+      </c>
+      <c r="I4">
+        <v>18.9832</v>
+      </c>
+      <c r="J4">
+        <v>20.633400000000002</v>
+      </c>
+      <c r="K4">
+        <v>22.720199999999998</v>
+      </c>
+      <c r="L4">
+        <v>24.691600000000001</v>
+      </c>
+      <c r="P4" t="s">
         <v>4</v>
       </c>
-      <c r="L4">
-        <v>28.327000000000002</v>
-      </c>
-      <c r="M4">
-        <v>23.372800000000002</v>
-      </c>
-      <c r="N4">
-        <v>21.3962</v>
-      </c>
-      <c r="O4">
-        <v>19.982199999999999</v>
-      </c>
-      <c r="P4">
-        <v>18.809100000000001</v>
-      </c>
       <c r="Q4">
-        <v>18.012599999999999</v>
+        <v>21.914899999999999</v>
       </c>
       <c r="R4">
-        <v>17.418800000000001</v>
+        <v>20.250599999999999</v>
       </c>
       <c r="S4">
-        <v>16.8569</v>
+        <v>19.0852</v>
       </c>
       <c r="T4">
-        <v>16.516100000000002</v>
+        <v>18.265999999999998</v>
       </c>
       <c r="U4">
-        <v>15.732200000000001</v>
+        <v>17.6434</v>
       </c>
       <c r="V4">
-        <v>15.7303</v>
+        <v>17.158799999999999</v>
+      </c>
+      <c r="W4">
+        <v>16.829699999999999</v>
+      </c>
+      <c r="X4">
+        <v>16.5731</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
-        <v>28.474299999999999</v>
-      </c>
       <c r="D5">
-        <v>36.787700000000001</v>
+        <v>102.07299999999999</v>
       </c>
       <c r="E5">
-        <v>44.322499999999998</v>
+        <v>118.68600000000001</v>
       </c>
       <c r="F5">
-        <v>49.407400000000003</v>
+        <v>125.836</v>
       </c>
       <c r="G5">
-        <v>53.195099999999996</v>
+        <v>133.50700000000001</v>
       </c>
       <c r="H5">
-        <v>58.444400000000002</v>
-      </c>
-      <c r="J5" t="s">
+        <v>146.173</v>
+      </c>
+      <c r="I5">
+        <v>162.21700000000001</v>
+      </c>
+      <c r="J5">
+        <v>175.63200000000001</v>
+      </c>
+      <c r="K5">
+        <v>194.011</v>
+      </c>
+      <c r="L5">
+        <v>211.358</v>
+      </c>
+      <c r="P5" t="s">
         <v>5</v>
       </c>
-      <c r="L5">
-        <v>341.30799999999999</v>
-      </c>
-      <c r="M5">
-        <v>270.471</v>
-      </c>
-      <c r="N5">
-        <v>242.27199999999999</v>
-      </c>
-      <c r="O5">
-        <v>222.054</v>
-      </c>
-      <c r="P5">
-        <v>205.28100000000001</v>
-      </c>
       <c r="Q5">
-        <v>193.88300000000001</v>
+        <v>212.351</v>
       </c>
       <c r="R5">
-        <v>185.345</v>
+        <v>189.35</v>
       </c>
       <c r="S5">
-        <v>177.35300000000001</v>
+        <v>173.142</v>
       </c>
       <c r="T5">
-        <v>172.386</v>
+        <v>161.71299999999999</v>
       </c>
       <c r="U5">
-        <v>161.19</v>
+        <v>153</v>
       </c>
       <c r="V5">
-        <v>161.22</v>
+        <v>146.173</v>
+      </c>
+      <c r="W5">
+        <v>141.51900000000001</v>
+      </c>
+      <c r="X5">
+        <v>137.95400000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
-        <v>385736</v>
-      </c>
       <c r="D6">
-        <v>481045</v>
+        <v>2.6640999999999999</v>
       </c>
       <c r="E6">
-        <v>564739</v>
+        <v>2.9234599999999999</v>
       </c>
       <c r="F6">
-        <v>676552</v>
+        <v>3.3631600000000001</v>
       </c>
       <c r="G6">
-        <v>796219</v>
+        <v>3.8442599999999998</v>
       </c>
       <c r="H6">
-        <v>911174</v>
-      </c>
-      <c r="J6" t="s">
+        <v>4.1216100000000004</v>
+      </c>
+      <c r="I6">
+        <v>4.2936100000000001</v>
+      </c>
+      <c r="J6">
+        <v>4.5232200000000002</v>
+      </c>
+      <c r="K6">
+        <v>4.6558400000000004</v>
+      </c>
+      <c r="L6">
+        <v>4.7508499999999998</v>
+      </c>
+      <c r="P6" t="s">
         <v>6</v>
       </c>
-      <c r="L6">
-        <v>4.1355300000000002</v>
-      </c>
-      <c r="M6">
-        <v>4.8635799999999998</v>
-      </c>
-      <c r="N6">
-        <v>5.18553</v>
-      </c>
-      <c r="O6">
-        <v>5.3889199999999997</v>
-      </c>
-      <c r="P6">
-        <v>5.5531600000000001</v>
-      </c>
       <c r="Q6">
-        <v>5.6723499999999998</v>
+        <v>2.8755099999999998</v>
       </c>
       <c r="R6">
-        <v>5.7574100000000001</v>
+        <v>3.2865500000000001</v>
       </c>
       <c r="S6">
-        <v>5.80945</v>
+        <v>3.5946500000000001</v>
       </c>
       <c r="T6">
-        <v>5.8714300000000001</v>
+        <v>3.82043</v>
       </c>
       <c r="U6">
-        <v>5.9669600000000003</v>
+        <v>3.9691800000000002</v>
       </c>
       <c r="V6">
-        <v>5.9782799999999998</v>
+        <v>4.1216100000000004</v>
+      </c>
+      <c r="W6">
+        <v>4.2285700000000004</v>
+      </c>
+      <c r="X6">
+        <v>4.27935</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
-        <v>3.6709000000000001</v>
-      </c>
       <c r="D7">
-        <v>4.5310100000000002</v>
+        <v>12.978400000000001</v>
       </c>
       <c r="E7">
-        <v>5.4965799999999998</v>
+        <v>14.8688</v>
       </c>
       <c r="F7">
-        <v>6.2941900000000004</v>
+        <v>15.9377</v>
       </c>
       <c r="G7">
-        <v>6.9829100000000004</v>
+        <v>17.658899999999999</v>
       </c>
       <c r="H7">
-        <v>7.7522000000000002</v>
-      </c>
-      <c r="J7" t="s">
+        <v>19.9587</v>
+      </c>
+      <c r="I7">
+        <v>22.2136</v>
+      </c>
+      <c r="J7">
+        <v>23.8688</v>
+      </c>
+      <c r="K7">
+        <v>26.019100000000002</v>
+      </c>
+      <c r="L7">
+        <v>28.0853</v>
+      </c>
+      <c r="P7" t="s">
         <v>7</v>
       </c>
-      <c r="L7">
-        <v>22.698</v>
-      </c>
-      <c r="M7">
-        <v>20.383099999999999</v>
-      </c>
-      <c r="N7">
-        <v>19.4848</v>
-      </c>
-      <c r="O7">
-        <v>18.810400000000001</v>
-      </c>
-      <c r="P7">
-        <v>18.277699999999999</v>
-      </c>
       <c r="Q7">
-        <v>17.894100000000002</v>
+        <v>23.1585</v>
       </c>
       <c r="R7">
-        <v>17.6218</v>
+        <v>21.897099999999998</v>
       </c>
       <c r="S7">
-        <v>17.3565</v>
+        <v>21.103200000000001</v>
       </c>
       <c r="T7">
-        <v>17.191700000000001</v>
+        <v>20.4908</v>
       </c>
       <c r="U7">
-        <v>16.822399999999998</v>
+        <v>20.241800000000001</v>
       </c>
       <c r="V7">
-        <v>16.827200000000001</v>
+        <v>19.9587</v>
+      </c>
+      <c r="W7">
+        <v>19.4453</v>
+      </c>
+      <c r="X7">
+        <v>19.3552</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:24">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -855,22 +858,28 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
+      <c r="P9" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="Q9" s="2"/>
-      <c r="R9" s="1"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="J9:Q9"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="P9:W9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
